--- a/storage/excel_template/temp_gedung.xlsx
+++ b/storage/excel_template/temp_gedung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nama</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Legalitas</t>
   </si>
   <si>
-    <t>Tipe_Milik</t>
-  </si>
-  <si>
     <t>Alas_Hak</t>
   </si>
   <si>
@@ -49,24 +46,12 @@
     <t>Tinggi_BG</t>
   </si>
   <si>
-    <t>Klas_Tggi</t>
-  </si>
-  <si>
-    <t>Kompleks</t>
-  </si>
-  <si>
     <t>Kepadatan</t>
   </si>
   <si>
     <t>Permanensi</t>
   </si>
   <si>
-    <t>Risk_Bakar</t>
-  </si>
-  <si>
-    <t>Penangkal</t>
-  </si>
-  <si>
     <t>Stktur_Bwh</t>
   </si>
   <si>
@@ -74,6 +59,36 @@
   </si>
   <si>
     <t>Stktur_Atp</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Tipe_pemilik</t>
+  </si>
+  <si>
+    <t>Kompleksitas</t>
+  </si>
+  <si>
+    <t>Tingkat resiko kebakaran</t>
+  </si>
+  <si>
+    <t>Penangkal Petir</t>
+  </si>
+  <si>
+    <t>KDB</t>
+  </si>
+  <si>
+    <t>KLB</t>
+  </si>
+  <si>
+    <t>KDH</t>
+  </si>
+  <si>
+    <t>GSB</t>
+  </si>
+  <si>
+    <t>RTH</t>
   </si>
 </sst>
 </file>
@@ -125,10 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -435,29 +453,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,58 +483,73 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/storage/excel_template/temp_gedung.xlsx
+++ b/storage/excel_template/temp_gedung.xlsx
@@ -22,9 +22,6 @@
     <t>BT</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>RTH</t>
+  </si>
+  <si>
+    <t>No. Seri</t>
   </si>
 </sst>
 </file>
@@ -455,9 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,79 +475,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
